--- a/sensitivity-analysis/tables/table2-mice/bivariate-prob-se.xlsx
+++ b/sensitivity-analysis/tables/table2-mice/bivariate-prob-se.xlsx
@@ -31298,13 +31298,13 @@
         <v>-0.84969726352735397</v>
       </c>
       <c r="D2" s="34">
-        <v>0.47180100525010815</v>
+        <v>0.4718010052501081</v>
       </c>
       <c r="E2" s="38">
-        <v>-1.7959672087398506</v>
+        <v>-1.7959672087398504</v>
       </c>
       <c r="F2" s="42">
-        <v>0.096572681685142658</v>
+        <v>0.096572681685142547</v>
       </c>
     </row>
     <row r="3">
@@ -31318,13 +31318,13 @@
         <v>-1.2810376354578024</v>
       </c>
       <c r="D3" s="53">
-        <v>0.24858171930648795</v>
+        <v>0.24858171930648817</v>
       </c>
       <c r="E3" s="56">
-        <v>-1.7796067510201619</v>
+        <v>-1.7796067510201623</v>
       </c>
       <c r="F3" s="59">
-        <v>-0.78246851989544286</v>
+        <v>-0.78246851989544242</v>
       </c>
     </row>
     <row r="4">
@@ -31338,13 +31338,13 @@
         <v>-1.4491114986926623</v>
       </c>
       <c r="D4" s="70">
-        <v>0.21568563299028551</v>
+        <v>0.2156856329902854</v>
       </c>
       <c r="E4" s="73">
-        <v>-1.8817024212250244</v>
+        <v>-1.8817024212250242</v>
       </c>
       <c r="F4" s="76">
-        <v>-1.0165205761603002</v>
+        <v>-1.0165205761603004</v>
       </c>
     </row>
     <row r="5">
@@ -31478,13 +31478,13 @@
         <v>-1.2052337329548464</v>
       </c>
       <c r="D11" s="189">
-        <v>0.33886670987324913</v>
+        <v>0.33886670987324918</v>
       </c>
       <c r="E11" s="192">
         <v>-1.8848833721414193</v>
       </c>
       <c r="F11" s="195">
-        <v>-0.52558409376827342</v>
+        <v>-0.52558409376827331</v>
       </c>
     </row>
     <row r="12">
@@ -31518,13 +31518,13 @@
         <v>-1.4561680899926639</v>
       </c>
       <c r="D13" s="223">
-        <v>0.30392508923176387</v>
+        <v>0.30392508923176381</v>
       </c>
       <c r="E13" s="226">
         <v>-2.0657369004355033</v>
       </c>
       <c r="F13" s="229">
-        <v>-0.84659927954982428</v>
+        <v>-0.84659927954982439</v>
       </c>
     </row>
     <row r="14">
@@ -31538,13 +31538,13 @@
         <v>-1.3378867169679705</v>
       </c>
       <c r="D14" s="240">
-        <v>0.26308047274108515</v>
+        <v>0.26308047274108509</v>
       </c>
       <c r="E14" s="243">
-        <v>-1.8655353267779795</v>
+        <v>-1.8655353267779793</v>
       </c>
       <c r="F14" s="246">
-        <v>-0.81023810715796141</v>
+        <v>-0.81023810715796152</v>
       </c>
     </row>
     <row r="15">
@@ -31618,13 +31618,13 @@
         <v>-1.1303489285506501</v>
       </c>
       <c r="D18" s="308">
-        <v>0.34941119746427896</v>
+        <v>0.3494111974642789</v>
       </c>
       <c r="E18" s="311">
-        <v>-1.8311471697622828</v>
+        <v>-1.8311471697622825</v>
       </c>
       <c r="F18" s="314">
-        <v>-0.42955068733901736</v>
+        <v>-0.42955068733901747</v>
       </c>
     </row>
     <row r="19">
@@ -31638,13 +31638,13 @@
         <v>-1.5936254905981024</v>
       </c>
       <c r="D19" s="325">
-        <v>0.23456008878815562</v>
+        <v>0.23456008878815574</v>
       </c>
       <c r="E19" s="328">
-        <v>-2.0640720557743335</v>
+        <v>-2.0640720557743339</v>
       </c>
       <c r="F19" s="331">
-        <v>-1.1231789254218714</v>
+        <v>-1.1231789254218711</v>
       </c>
     </row>
     <row r="20">
@@ -31658,13 +31658,13 @@
         <v>-0.87356575915280354</v>
       </c>
       <c r="D20" s="342">
-        <v>0.29754327942241854</v>
+        <v>0.29754327942241859</v>
       </c>
       <c r="E20" s="345">
-        <v>-1.4703348621947561</v>
+        <v>-1.4703348621947563</v>
       </c>
       <c r="F20" s="348">
-        <v>-0.27679665611085102</v>
+        <v>-0.27679665611085091</v>
       </c>
     </row>
     <row r="21">
@@ -31678,7 +31678,7 @@
         <v>-1.8671416745345752</v>
       </c>
       <c r="D21" s="359">
-        <v>0.29053918782499544</v>
+        <v>0.29053918782499538</v>
       </c>
       <c r="E21" s="362">
         <v>-2.4498771390641254</v>
@@ -31718,7 +31718,7 @@
         <v>-2.2579054171293174</v>
       </c>
       <c r="D23" s="393">
-        <v>0.35099617429095831</v>
+        <v>0.35099617429095836</v>
       </c>
       <c r="E23" s="396">
         <v>-2.9618846462983126</v>
@@ -31738,13 +31738,13 @@
         <v>-1.3624239421931503</v>
       </c>
       <c r="D24" s="410">
-        <v>0.37078824158411239</v>
+        <v>0.3707882415841125</v>
       </c>
       <c r="E24" s="413">
-        <v>-2.1061034609732037</v>
+        <v>-2.1061034609732041</v>
       </c>
       <c r="F24" s="416">
-        <v>-0.61874442341309688</v>
+        <v>-0.61874442341309666</v>
       </c>
     </row>
     <row r="25">
@@ -31758,13 +31758,13 @@
         <v>-0.51683842227186094</v>
       </c>
       <c r="D25" s="427">
-        <v>0.24059360446991121</v>
+        <v>0.24059360446991115</v>
       </c>
       <c r="E25" s="430">
-        <v>-0.99939943205571624</v>
+        <v>-0.99939943205571602</v>
       </c>
       <c r="F25" s="433">
-        <v>-0.034277412488005699</v>
+        <v>-0.03427741248800581</v>
       </c>
     </row>
     <row r="26">
@@ -31858,7 +31858,7 @@
         <v>-1.4077948093455901</v>
       </c>
       <c r="D30" s="512">
-        <v>0.21784903469594527</v>
+        <v>0.21784903469594524</v>
       </c>
       <c r="E30" s="515">
         <v>-1.8447247688675026</v>
@@ -31978,13 +31978,13 @@
         <v>-1.4307587480751736</v>
       </c>
       <c r="D36" s="614">
-        <v>0.27805154607446209</v>
+        <v>0.27805154607446214</v>
       </c>
       <c r="E36" s="617">
         <v>-1.9887650258624756</v>
       </c>
       <c r="F36" s="620">
-        <v>-0.87275247028787162</v>
+        <v>-0.87275247028787151</v>
       </c>
     </row>
     <row r="37">
@@ -32147,10 +32147,10 @@
         <v>2.4757267561643324</v>
       </c>
       <c r="D5" s="764">
-        <v>0.35021739833976523</v>
+        <v>0.35021739833976528</v>
       </c>
       <c r="E5" s="767">
-        <v>1.7733115543066065</v>
+        <v>1.7733115543066063</v>
       </c>
       <c r="F5" s="770">
         <v>3.1781419580220582</v>
@@ -32167,13 +32167,13 @@
         <v>1.9321929636479129</v>
       </c>
       <c r="D6" s="781">
-        <v>0.2243691326686707</v>
+        <v>0.22436913266867062</v>
       </c>
       <c r="E6" s="784">
-        <v>1.4821859384080918</v>
+        <v>1.482185938408092</v>
       </c>
       <c r="F6" s="787">
-        <v>2.3821999888877343</v>
+        <v>2.3821999888877339</v>
       </c>
     </row>
     <row r="7">
@@ -32327,13 +32327,13 @@
         <v>2.9969291160879066</v>
       </c>
       <c r="D14" s="917">
-        <v>0.44959783681269611</v>
+        <v>0.44959783681269594</v>
       </c>
       <c r="E14" s="920">
-        <v>2.0951910619630008</v>
+        <v>2.0951910619630012</v>
       </c>
       <c r="F14" s="923">
-        <v>3.8986671702128124</v>
+        <v>3.8986671702128119</v>
       </c>
     </row>
     <row r="15">
@@ -32407,7 +32407,7 @@
         <v>1.7223624597394991</v>
       </c>
       <c r="D18" s="985">
-        <v>0.32824876360795324</v>
+        <v>0.32824876360795319</v>
       </c>
       <c r="E18" s="988">
         <v>1.0640087553197555</v>
@@ -32507,13 +32507,13 @@
         <v>2.8935905365198042</v>
       </c>
       <c r="D23" s="1070">
-        <v>0.41539701236582566</v>
+        <v>0.41539701236582577</v>
       </c>
       <c r="E23" s="1073">
-        <v>2.0599057651743324</v>
+        <v>2.059905765174332</v>
       </c>
       <c r="F23" s="1076">
-        <v>3.7272753078652761</v>
+        <v>3.7272753078652765</v>
       </c>
     </row>
     <row r="24">
@@ -32527,13 +32527,13 @@
         <v>1.6296654930274976</v>
       </c>
       <c r="D24" s="1087">
-        <v>0.31110193352769888</v>
+        <v>0.31110193352769866</v>
       </c>
       <c r="E24" s="1090">
-        <v>1.0055096920124547</v>
+        <v>1.0055096920124551</v>
       </c>
       <c r="F24" s="1093">
-        <v>2.2538212940425408</v>
+        <v>2.2538212940425399</v>
       </c>
     </row>
     <row r="25">
@@ -32647,7 +32647,7 @@
         <v>1.9409315316359588</v>
       </c>
       <c r="D30" s="1189">
-        <v>0.22621744574374275</v>
+        <v>0.22621744574374272</v>
       </c>
       <c r="E30" s="1192">
         <v>1.4872143491487637</v>
@@ -32687,13 +32687,13 @@
         <v>1.688805508480355</v>
       </c>
       <c r="D32" s="1223">
-        <v>0.61808603764211534</v>
+        <v>0.61808603764211567</v>
       </c>
       <c r="E32" s="1226">
-        <v>0.44913828762277608</v>
+        <v>0.44913828762277541</v>
       </c>
       <c r="F32" s="1229">
-        <v>2.9284727293379342</v>
+        <v>2.9284727293379347</v>
       </c>
     </row>
     <row r="33">
@@ -32707,13 +32707,13 @@
         <v>2.1881306558205225</v>
       </c>
       <c r="D33" s="1240">
-        <v>0.18911052902987208</v>
+        <v>0.1891105290298718</v>
       </c>
       <c r="E33" s="1243">
-        <v>1.8088402177907441</v>
+        <v>1.8088402177907446</v>
       </c>
       <c r="F33" s="1246">
-        <v>2.5674210938503008</v>
+        <v>2.5674210938503004</v>
       </c>
     </row>
     <row r="34">
@@ -32787,10 +32787,10 @@
         <v>2.2538731953767934</v>
       </c>
       <c r="D37" s="1308">
-        <v>0.28890070939108636</v>
+        <v>0.28890070939108631</v>
       </c>
       <c r="E37" s="1311">
-        <v>1.6734812486691311</v>
+        <v>1.6734812486691313</v>
       </c>
       <c r="F37" s="1314">
         <v>2.8342651420844556</v>
@@ -32827,10 +32827,10 @@
         <v>1.5113381366015584</v>
       </c>
       <c r="D39" s="1346">
-        <v>0.41573065383503427</v>
+        <v>0.41573065383503438</v>
       </c>
       <c r="E39" s="1350">
-        <v>0.67752596017541855</v>
+        <v>0.67752596017541833</v>
       </c>
       <c r="F39" s="1354">
         <v>2.3451503130276983</v>
@@ -32956,13 +32956,13 @@
         <v>0.32851963683899771</v>
       </c>
       <c r="D6" s="1458">
-        <v>0.17347844453710951</v>
+        <v>0.17347844453710956</v>
       </c>
       <c r="E6" s="1461">
-        <v>-0.019418236079814022</v>
+        <v>-0.019418236079814133</v>
       </c>
       <c r="F6" s="1464">
-        <v>0.67645750975780938</v>
+        <v>0.67645750975780961</v>
       </c>
     </row>
     <row r="7">
@@ -32996,13 +32996,13 @@
         <v>0.47525883060792984</v>
       </c>
       <c r="D8" s="1492">
-        <v>0.24952555894044712</v>
+        <v>0.24952555894044709</v>
       </c>
       <c r="E8" s="1495">
-        <v>-0.025910753366654604</v>
+        <v>-0.025910753366654493</v>
       </c>
       <c r="F8" s="1498">
-        <v>0.97642841458251428</v>
+        <v>0.97642841458251417</v>
       </c>
     </row>
     <row r="9">
@@ -33216,13 +33216,13 @@
         <v>0.021881426757381195</v>
       </c>
       <c r="D19" s="1679">
-        <v>0.19383506958017857</v>
+        <v>0.19383506958017871</v>
       </c>
       <c r="E19" s="1682">
-        <v>-0.36688480864871431</v>
+        <v>-0.36688480864871459</v>
       </c>
       <c r="F19" s="1685">
-        <v>0.4106476621634767</v>
+        <v>0.41064766216347698</v>
       </c>
     </row>
     <row r="20">
@@ -33236,13 +33236,13 @@
         <v>0.012652394936636224</v>
       </c>
       <c r="D20" s="1696">
-        <v>0.27104305435719628</v>
+        <v>0.27104305435719633</v>
       </c>
       <c r="E20" s="1699">
         <v>-0.53096640481740076</v>
       </c>
       <c r="F20" s="1702">
-        <v>0.5562711946906731</v>
+        <v>0.55627119469067332</v>
       </c>
     </row>
     <row r="21">
@@ -33296,10 +33296,10 @@
         <v>0.32203099070534014</v>
       </c>
       <c r="D23" s="1747">
-        <v>0.2483740709320453</v>
+        <v>0.24837407093204533</v>
       </c>
       <c r="E23" s="1750">
-        <v>-0.17612165390057632</v>
+        <v>-0.17612165390057638</v>
       </c>
       <c r="F23" s="1753">
         <v>0.8201836353112566</v>
@@ -33316,13 +33316,13 @@
         <v>0.25134229846802481</v>
       </c>
       <c r="D24" s="1764">
-        <v>0.23378764625135895</v>
+        <v>0.23378764625135903</v>
       </c>
       <c r="E24" s="1767">
-        <v>-0.21755501363574431</v>
+        <v>-0.21755501363574448</v>
       </c>
       <c r="F24" s="1770">
-        <v>0.72023961057179386</v>
+        <v>0.72023961057179409</v>
       </c>
     </row>
     <row r="25">
@@ -33336,13 +33336,13 @@
         <v>-0.18442903975623293</v>
       </c>
       <c r="D25" s="1781">
-        <v>0.25743321325710594</v>
+        <v>0.257433213257106</v>
       </c>
       <c r="E25" s="1784">
-        <v>-0.70075119654252938</v>
+        <v>-0.70075119654252949</v>
       </c>
       <c r="F25" s="1787">
-        <v>0.33189311703006352</v>
+        <v>0.33189311703006363</v>
       </c>
     </row>
     <row r="26">
@@ -33376,13 +33376,13 @@
         <v>0.30629879143918093</v>
       </c>
       <c r="D27" s="1815">
-        <v>0.18313080151088898</v>
+        <v>0.18313080151088892</v>
       </c>
       <c r="E27" s="1818">
-        <v>-0.060998377460587505</v>
+        <v>-0.060998377460587394</v>
       </c>
       <c r="F27" s="1821">
-        <v>0.67359596033894942</v>
+        <v>0.6735959603389492</v>
       </c>
     </row>
     <row r="28">
@@ -33436,10 +33436,10 @@
         <v>0.31637772210666115</v>
       </c>
       <c r="D30" s="1866">
-        <v>0.1760736343480824</v>
+        <v>0.17607363434808243</v>
       </c>
       <c r="E30" s="1869">
-        <v>-0.036782642147596245</v>
+        <v>-0.036782642147596301</v>
       </c>
       <c r="F30" s="1872">
         <v>0.66953808636091861</v>
@@ -33456,13 +33456,13 @@
         <v>-0.28035155605412826</v>
       </c>
       <c r="D31" s="1883">
-        <v>0.26077172372104618</v>
+        <v>0.26077172372104612</v>
       </c>
       <c r="E31" s="1886">
         <v>-0.80340293564916276</v>
       </c>
       <c r="F31" s="1889">
-        <v>0.2426998235409063</v>
+        <v>0.24269982354090619</v>
       </c>
     </row>
     <row r="32">
@@ -33476,13 +33476,13 @@
         <v>0.79752608633549693</v>
       </c>
       <c r="D32" s="1900">
-        <v>0.52790545697084668</v>
+        <v>0.52790545697084701</v>
       </c>
       <c r="E32" s="1903">
-        <v>-0.26127002110468855</v>
+        <v>-0.26127002110468922</v>
       </c>
       <c r="F32" s="1906">
-        <v>1.8563221937756824</v>
+        <v>1.8563221937756831</v>
       </c>
     </row>
     <row r="33">
@@ -33496,13 +33496,13 @@
         <v>0.076749641892075338</v>
       </c>
       <c r="D33" s="1917">
-        <v>0.1330101224981011</v>
+        <v>0.13301012249810235</v>
       </c>
       <c r="E33" s="1920">
-        <v>-0.19002274716263562</v>
+        <v>-0.19002274716263812</v>
       </c>
       <c r="F33" s="1923">
-        <v>0.34352203094678629</v>
+        <v>0.34352203094678879</v>
       </c>
     </row>
     <row r="34">

--- a/sensitivity-analysis/tables/table2-mice/bivariate-prob-se.xlsx
+++ b/sensitivity-analysis/tables/table2-mice/bivariate-prob-se.xlsx
@@ -31298,13 +31298,13 @@
         <v>-0.84969726352735397</v>
       </c>
       <c r="D2" s="34">
-        <v>0.4718010052501081</v>
+        <v>0.47180100525010815</v>
       </c>
       <c r="E2" s="38">
-        <v>-1.7959672087398504</v>
+        <v>-1.7959672087398506</v>
       </c>
       <c r="F2" s="42">
-        <v>0.096572681685142547</v>
+        <v>0.096572681685142658</v>
       </c>
     </row>
     <row r="3">
@@ -31318,13 +31318,13 @@
         <v>-1.2810376354578024</v>
       </c>
       <c r="D3" s="53">
-        <v>0.24858171930648817</v>
+        <v>0.24858171930648804</v>
       </c>
       <c r="E3" s="56">
-        <v>-1.7796067510201623</v>
+        <v>-1.7796067510201621</v>
       </c>
       <c r="F3" s="59">
-        <v>-0.78246851989544242</v>
+        <v>-0.78246851989544264</v>
       </c>
     </row>
     <row r="4">
@@ -31338,13 +31338,13 @@
         <v>-1.4491114986926623</v>
       </c>
       <c r="D4" s="70">
-        <v>0.2156856329902854</v>
+        <v>0.21568563299028545</v>
       </c>
       <c r="E4" s="73">
-        <v>-1.8817024212250242</v>
+        <v>-1.8817024212250244</v>
       </c>
       <c r="F4" s="76">
-        <v>-1.0165205761603004</v>
+        <v>-1.0165205761603002</v>
       </c>
     </row>
     <row r="5">
@@ -31478,13 +31478,13 @@
         <v>-1.2052337329548464</v>
       </c>
       <c r="D11" s="189">
-        <v>0.33886670987324918</v>
+        <v>0.33886670987324913</v>
       </c>
       <c r="E11" s="192">
         <v>-1.8848833721414193</v>
       </c>
       <c r="F11" s="195">
-        <v>-0.52558409376827331</v>
+        <v>-0.52558409376827342</v>
       </c>
     </row>
     <row r="12">
@@ -31498,13 +31498,13 @@
         <v>-0.93188483233028641</v>
       </c>
       <c r="D12" s="206">
-        <v>0.36379502095746435</v>
+        <v>0.36379502095746441</v>
       </c>
       <c r="E12" s="209">
-        <v>-1.6615320580022794</v>
+        <v>-1.6615320580022797</v>
       </c>
       <c r="F12" s="212">
-        <v>-0.20223760665829338</v>
+        <v>-0.20223760665829327</v>
       </c>
     </row>
     <row r="13">
@@ -31518,13 +31518,13 @@
         <v>-1.4561680899926639</v>
       </c>
       <c r="D13" s="223">
-        <v>0.30392508923176381</v>
+        <v>0.30392508923176398</v>
       </c>
       <c r="E13" s="226">
-        <v>-2.0657369004355033</v>
+        <v>-2.0657369004355037</v>
       </c>
       <c r="F13" s="229">
-        <v>-0.84659927954982439</v>
+        <v>-0.84659927954982406</v>
       </c>
     </row>
     <row r="14">
@@ -31538,13 +31538,13 @@
         <v>-1.3378867169679705</v>
       </c>
       <c r="D14" s="240">
-        <v>0.26308047274108509</v>
+        <v>0.26308047274108515</v>
       </c>
       <c r="E14" s="243">
-        <v>-1.8655353267779793</v>
+        <v>-1.8655353267779795</v>
       </c>
       <c r="F14" s="246">
-        <v>-0.81023810715796152</v>
+        <v>-0.81023810715796141</v>
       </c>
     </row>
     <row r="15">
@@ -31618,13 +31618,13 @@
         <v>-1.1303489285506501</v>
       </c>
       <c r="D18" s="308">
-        <v>0.3494111974642789</v>
+        <v>0.34941119746427896</v>
       </c>
       <c r="E18" s="311">
-        <v>-1.8311471697622825</v>
+        <v>-1.8311471697622828</v>
       </c>
       <c r="F18" s="314">
-        <v>-0.42955068733901747</v>
+        <v>-0.42955068733901736</v>
       </c>
     </row>
     <row r="19">
@@ -31638,13 +31638,13 @@
         <v>-1.5936254905981024</v>
       </c>
       <c r="D19" s="325">
-        <v>0.23456008878815574</v>
+        <v>0.23456008878815562</v>
       </c>
       <c r="E19" s="328">
-        <v>-2.0640720557743339</v>
+        <v>-2.0640720557743335</v>
       </c>
       <c r="F19" s="331">
-        <v>-1.1231789254218711</v>
+        <v>-1.1231789254218714</v>
       </c>
     </row>
     <row r="20">
@@ -31658,13 +31658,13 @@
         <v>-0.87356575915280354</v>
       </c>
       <c r="D20" s="342">
-        <v>0.29754327942241859</v>
+        <v>0.29754327942241854</v>
       </c>
       <c r="E20" s="345">
-        <v>-1.4703348621947563</v>
+        <v>-1.4703348621947561</v>
       </c>
       <c r="F20" s="348">
-        <v>-0.27679665611085091</v>
+        <v>-0.27679665611085102</v>
       </c>
     </row>
     <row r="21">
@@ -31698,13 +31698,13 @@
         <v>-0.80961534766125565</v>
       </c>
       <c r="D22" s="376">
-        <v>0.22187892537098761</v>
+        <v>0.22187892537098763</v>
       </c>
       <c r="E22" s="379">
         <v>-1.2546502787190144</v>
       </c>
       <c r="F22" s="382">
-        <v>-0.36458041660349688</v>
+        <v>-0.36458041660349683</v>
       </c>
     </row>
     <row r="23">
@@ -31718,7 +31718,7 @@
         <v>-2.2579054171293174</v>
       </c>
       <c r="D23" s="393">
-        <v>0.35099617429095836</v>
+        <v>0.35099617429095842</v>
       </c>
       <c r="E23" s="396">
         <v>-2.9618846462983126</v>
@@ -31758,13 +31758,13 @@
         <v>-0.51683842227186094</v>
       </c>
       <c r="D25" s="427">
-        <v>0.24059360446991115</v>
+        <v>0.24059360446991102</v>
       </c>
       <c r="E25" s="430">
-        <v>-0.99939943205571602</v>
+        <v>-0.9993994320557158</v>
       </c>
       <c r="F25" s="433">
-        <v>-0.03427741248800581</v>
+        <v>-0.034277412488006087</v>
       </c>
     </row>
     <row r="26">
@@ -31778,7 +31778,7 @@
         <v>-1.0583669497863679</v>
       </c>
       <c r="D26" s="444">
-        <v>0.21010286696433733</v>
+        <v>0.2101028669643373</v>
       </c>
       <c r="E26" s="447">
         <v>-1.4797607709079188</v>
@@ -31798,13 +31798,13 @@
         <v>-1.4897939105773461</v>
       </c>
       <c r="D27" s="461">
-        <v>0.31329708244677301</v>
+        <v>0.31329708244677296</v>
       </c>
       <c r="E27" s="464">
         <v>-2.1181597040859534</v>
       </c>
       <c r="F27" s="467">
-        <v>-0.86142811706873856</v>
+        <v>-0.86142811706873867</v>
       </c>
     </row>
     <row r="28">
@@ -31858,7 +31858,7 @@
         <v>-1.4077948093455901</v>
       </c>
       <c r="D30" s="512">
-        <v>0.21784903469594524</v>
+        <v>0.21784903469594527</v>
       </c>
       <c r="E30" s="515">
         <v>-1.8447247688675026</v>
@@ -31878,13 +31878,13 @@
         <v>-0.8660519500521644</v>
       </c>
       <c r="D31" s="529">
-        <v>0.28912409391132554</v>
+        <v>0.2891240939113256</v>
       </c>
       <c r="E31" s="532">
-        <v>-1.4459350733618512</v>
+        <v>-1.4459350733618515</v>
       </c>
       <c r="F31" s="535">
-        <v>-0.28616882674247746</v>
+        <v>-0.28616882674247734</v>
       </c>
     </row>
     <row r="32">
@@ -31998,7 +31998,7 @@
         <v>-1.0301776281656398</v>
       </c>
       <c r="D37" s="631">
-        <v>0.24737632599270065</v>
+        <v>0.24737632599270068</v>
       </c>
       <c r="E37" s="634">
         <v>-1.5267302736883241</v>
@@ -32107,7 +32107,7 @@
         <v>2.6143366678685402</v>
       </c>
       <c r="D3" s="730">
-        <v>0.30042829672321014</v>
+        <v>0.30042829672321003</v>
       </c>
       <c r="E3" s="733">
         <v>2.0117812160634903</v>
@@ -32147,13 +32147,13 @@
         <v>2.4757267561643324</v>
       </c>
       <c r="D5" s="764">
-        <v>0.35021739833976528</v>
+        <v>0.35021739833976534</v>
       </c>
       <c r="E5" s="767">
-        <v>1.7733115543066063</v>
+        <v>1.773311554306606</v>
       </c>
       <c r="F5" s="770">
-        <v>3.1781419580220582</v>
+        <v>3.1781419580220587</v>
       </c>
     </row>
     <row r="6">
@@ -32167,10 +32167,10 @@
         <v>1.9321929636479129</v>
       </c>
       <c r="D6" s="781">
-        <v>0.22436913266867062</v>
+        <v>0.22436913266867067</v>
       </c>
       <c r="E6" s="784">
-        <v>1.482185938408092</v>
+        <v>1.4821859384080918</v>
       </c>
       <c r="F6" s="787">
         <v>2.3821999888877339</v>
@@ -32287,7 +32287,7 @@
         <v>2.2763286665812088</v>
       </c>
       <c r="D12" s="883">
-        <v>0.44759092077358281</v>
+        <v>0.4475909207735827</v>
       </c>
       <c r="E12" s="886">
         <v>1.3786157932194749</v>
@@ -32307,7 +32307,7 @@
         <v>2.3704478280728685</v>
       </c>
       <c r="D13" s="900">
-        <v>0.26802981410527965</v>
+        <v>0.26802981410527971</v>
       </c>
       <c r="E13" s="903">
         <v>1.8328725480577979</v>
@@ -32347,13 +32347,13 @@
         <v>1.8285594600564188</v>
       </c>
       <c r="D15" s="934">
-        <v>0.19868721085982119</v>
+        <v>0.19868721085982063</v>
       </c>
       <c r="E15" s="937">
-        <v>1.4300615042602476</v>
+        <v>1.4300615042602487</v>
       </c>
       <c r="F15" s="940">
-        <v>2.22705741585259</v>
+        <v>2.2270574158525891</v>
       </c>
     </row>
     <row r="16">
@@ -32507,13 +32507,13 @@
         <v>2.8935905365198042</v>
       </c>
       <c r="D23" s="1070">
-        <v>0.41539701236582577</v>
+        <v>0.4153970123658256</v>
       </c>
       <c r="E23" s="1073">
-        <v>2.059905765174332</v>
+        <v>2.0599057651743324</v>
       </c>
       <c r="F23" s="1076">
-        <v>3.7272753078652765</v>
+        <v>3.7272753078652761</v>
       </c>
     </row>
     <row r="24">
@@ -32527,13 +32527,13 @@
         <v>1.6296654930274976</v>
       </c>
       <c r="D24" s="1087">
-        <v>0.31110193352769866</v>
+        <v>0.31110193352769872</v>
       </c>
       <c r="E24" s="1090">
-        <v>1.0055096920124551</v>
+        <v>1.0055096920124549</v>
       </c>
       <c r="F24" s="1093">
-        <v>2.2538212940425399</v>
+        <v>2.2538212940425404</v>
       </c>
     </row>
     <row r="25">
@@ -32547,13 +32547,13 @@
         <v>2.2153645266101245</v>
       </c>
       <c r="D25" s="1104">
-        <v>0.32791435113643969</v>
+        <v>0.32791435113643957</v>
       </c>
       <c r="E25" s="1107">
-        <v>1.5573099704799396</v>
+        <v>1.55730997047994</v>
       </c>
       <c r="F25" s="1110">
-        <v>2.8734190827403094</v>
+        <v>2.873419082740309</v>
       </c>
     </row>
     <row r="26">
@@ -32647,7 +32647,7 @@
         <v>1.9409315316359588</v>
       </c>
       <c r="D30" s="1189">
-        <v>0.22621744574374272</v>
+        <v>0.22621744574374275</v>
       </c>
       <c r="E30" s="1192">
         <v>1.4872143491487637</v>
@@ -32687,13 +32687,13 @@
         <v>1.688805508480355</v>
       </c>
       <c r="D32" s="1223">
-        <v>0.61808603764211567</v>
+        <v>0.61808603764211512</v>
       </c>
       <c r="E32" s="1226">
-        <v>0.44913828762277541</v>
+        <v>0.44913828762277652</v>
       </c>
       <c r="F32" s="1229">
-        <v>2.9284727293379347</v>
+        <v>2.9284727293379333</v>
       </c>
     </row>
     <row r="33">
@@ -32707,13 +32707,13 @@
         <v>2.1881306558205225</v>
       </c>
       <c r="D33" s="1240">
-        <v>0.1891105290298718</v>
+        <v>0.18911052902987208</v>
       </c>
       <c r="E33" s="1243">
-        <v>1.8088402177907446</v>
+        <v>1.8088402177907441</v>
       </c>
       <c r="F33" s="1246">
-        <v>2.5674210938503004</v>
+        <v>2.5674210938503008</v>
       </c>
     </row>
     <row r="34">
@@ -32787,10 +32787,10 @@
         <v>2.2538731953767934</v>
       </c>
       <c r="D37" s="1308">
-        <v>0.28890070939108631</v>
+        <v>0.28890070939108636</v>
       </c>
       <c r="E37" s="1311">
-        <v>1.6734812486691313</v>
+        <v>1.6734812486691311</v>
       </c>
       <c r="F37" s="1314">
         <v>2.8342651420844556</v>
@@ -32876,13 +32876,13 @@
         <v>0.57259510108532441</v>
       </c>
       <c r="D2" s="1388">
-        <v>0.4136181172759566</v>
+        <v>0.41361811727595654</v>
       </c>
       <c r="E2" s="1392">
-        <v>-0.25698005627605491</v>
+        <v>-0.2569800562760548</v>
       </c>
       <c r="F2" s="1396">
-        <v>1.4021702584467037</v>
+        <v>1.4021702584467035</v>
       </c>
     </row>
     <row r="3">
@@ -32896,13 +32896,13 @@
         <v>0.081238438999754359</v>
       </c>
       <c r="D3" s="1407">
-        <v>0.25125698189060369</v>
+        <v>0.25125698189060364</v>
       </c>
       <c r="E3" s="1410">
-        <v>-0.42269632977387428</v>
+        <v>-0.42269632977387417</v>
       </c>
       <c r="F3" s="1413">
-        <v>0.585173207773383</v>
+        <v>0.58517320777338289</v>
       </c>
     </row>
     <row r="4">
@@ -32996,13 +32996,13 @@
         <v>0.47525883060792984</v>
       </c>
       <c r="D8" s="1492">
-        <v>0.24952555894044709</v>
+        <v>0.24952555894044712</v>
       </c>
       <c r="E8" s="1495">
-        <v>-0.025910753366654493</v>
+        <v>-0.025910753366654604</v>
       </c>
       <c r="F8" s="1498">
-        <v>0.97642841458251417</v>
+        <v>0.97642841458251428</v>
       </c>
     </row>
     <row r="9">
@@ -33096,13 +33096,13 @@
         <v>0.02496100911666288</v>
       </c>
       <c r="D13" s="1577">
-        <v>0.18747983606157026</v>
+        <v>0.18747983606157029</v>
       </c>
       <c r="E13" s="1580">
-        <v>-0.35105882175331227</v>
+        <v>-0.35105882175331232</v>
       </c>
       <c r="F13" s="1583">
-        <v>0.40098083998663803</v>
+        <v>0.40098083998663808</v>
       </c>
     </row>
     <row r="14">
@@ -33116,13 +33116,13 @@
         <v>0.23466873466369406</v>
       </c>
       <c r="D14" s="1594">
-        <v>0.24270106032403743</v>
+        <v>0.24270106032403732</v>
       </c>
       <c r="E14" s="1597">
-        <v>-0.2521058090533026</v>
+        <v>-0.25210580905330238</v>
       </c>
       <c r="F14" s="1600">
-        <v>0.72144327838069067</v>
+        <v>0.72144327838069044</v>
       </c>
     </row>
     <row r="15">
@@ -33136,13 +33136,13 @@
         <v>0.07780237733437706</v>
       </c>
       <c r="D15" s="1611">
-        <v>0.19171802957947137</v>
+        <v>0.1917180295794714</v>
       </c>
       <c r="E15" s="1614">
-        <v>-0.30671780665769083</v>
+        <v>-0.30671780665769088</v>
       </c>
       <c r="F15" s="1617">
-        <v>0.46232256132644495</v>
+        <v>0.462322561326445</v>
       </c>
     </row>
     <row r="16">
@@ -33216,13 +33216,13 @@
         <v>0.021881426757381195</v>
       </c>
       <c r="D19" s="1679">
-        <v>0.19383506958017871</v>
+        <v>0.19383506958017876</v>
       </c>
       <c r="E19" s="1682">
-        <v>-0.36688480864871459</v>
+        <v>-0.3668848086487147</v>
       </c>
       <c r="F19" s="1685">
-        <v>0.41064766216347698</v>
+        <v>0.41064766216347709</v>
       </c>
     </row>
     <row r="20">
@@ -33316,13 +33316,13 @@
         <v>0.25134229846802481</v>
       </c>
       <c r="D24" s="1764">
-        <v>0.23378764625135903</v>
+        <v>0.23378764625135889</v>
       </c>
       <c r="E24" s="1767">
-        <v>-0.21755501363574448</v>
+        <v>-0.2175550136357442</v>
       </c>
       <c r="F24" s="1770">
-        <v>0.72023961057179409</v>
+        <v>0.72023961057179386</v>
       </c>
     </row>
     <row r="25">
@@ -33336,13 +33336,13 @@
         <v>-0.18442903975623293</v>
       </c>
       <c r="D25" s="1781">
-        <v>0.257433213257106</v>
+        <v>0.25743321325710594</v>
       </c>
       <c r="E25" s="1784">
-        <v>-0.70075119654252949</v>
+        <v>-0.70075119654252938</v>
       </c>
       <c r="F25" s="1787">
-        <v>0.33189311703006363</v>
+        <v>0.33189311703006352</v>
       </c>
     </row>
     <row r="26">
@@ -33416,13 +33416,13 @@
         <v>0.063958066350387588</v>
       </c>
       <c r="D29" s="1849">
-        <v>0.28825235119889719</v>
+        <v>0.28825235119889725</v>
       </c>
       <c r="E29" s="1852">
-        <v>-0.51417664201412205</v>
+        <v>-0.51417664201412216</v>
       </c>
       <c r="F29" s="1855">
-        <v>0.64209277471489723</v>
+        <v>0.64209277471489734</v>
       </c>
     </row>
     <row r="30">
@@ -33476,13 +33476,13 @@
         <v>0.79752608633549693</v>
       </c>
       <c r="D32" s="1900">
-        <v>0.52790545697084701</v>
+        <v>0.52790545697084756</v>
       </c>
       <c r="E32" s="1903">
-        <v>-0.26127002110468922</v>
+        <v>-0.26127002110469033</v>
       </c>
       <c r="F32" s="1906">
-        <v>1.8563221937756831</v>
+        <v>1.8563221937756842</v>
       </c>
     </row>
     <row r="33">
@@ -33496,13 +33496,13 @@
         <v>0.076749641892075338</v>
       </c>
       <c r="D33" s="1917">
-        <v>0.13301012249810235</v>
+        <v>0.13301012249810004</v>
       </c>
       <c r="E33" s="1920">
-        <v>-0.19002274716263812</v>
+        <v>-0.19002274716263351</v>
       </c>
       <c r="F33" s="1923">
-        <v>0.34352203094678879</v>
+        <v>0.34352203094678418</v>
       </c>
     </row>
     <row r="34">
@@ -33596,10 +33596,10 @@
         <v>0.25079926623217702</v>
       </c>
       <c r="D38" s="2002">
-        <v>0.13758534920651458</v>
+        <v>0.13758534920651455</v>
       </c>
       <c r="E38" s="2005">
-        <v>-0.025149448176928046</v>
+        <v>-0.025149448176927991</v>
       </c>
       <c r="F38" s="2008">
         <v>0.52674798064128203</v>
